--- a/Data/Test SWV/Excel Files/Apt3.xlsx
+++ b/Data/Test SWV/Excel Files/Apt3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A148"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mar. 31, 2023   16:10:15</t>
+          <t>Mar. 31</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023   16:10:15</t>
         </is>
       </c>
     </row>
@@ -543,882 +548,2772 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.004, -2.780e-7, -9.984e-8, 1.782e-7</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.780e-7</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.984e-8</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.782e-7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.008, -2.718e-7, -1.067e-7, 1.651e-7</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.718e-7</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.067e-7</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.651e-7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.012, -2.630e-7, -1.081e-7, 1.550e-7</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.630e-7</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.081e-7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.550e-7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.016, -2.547e-7, -1.084e-7, 1.463e-7</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.547e-7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.084e-7</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.463e-7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.020, -2.472e-7, -1.084e-7, 1.388e-7</t>
+          <t>-0.020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.472e-7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.084e-7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.388e-7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.024, -2.403e-7, -1.081e-7, 1.322e-7</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.403e-7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.081e-7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.322e-7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.028, -2.335e-7, -1.073e-7, 1.263e-7</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.335e-7</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.073e-7</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.263e-7</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.032, -2.275e-7, -1.067e-7, 1.208e-7</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.275e-7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.067e-7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.208e-7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.036, -2.220e-7, -1.062e-7, 1.158e-7</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.220e-7</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.062e-7</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.158e-7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.040, -2.166e-7, -1.054e-7, 1.112e-7</t>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.166e-7</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.054e-7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.112e-7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.044, -2.116e-7, -1.047e-7, 1.069e-7</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.116e-7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.047e-7</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.069e-7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.048, -2.071e-7, -1.039e-7, 1.032e-7</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.071e-7</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.039e-7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.032e-7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.052, -2.025e-7, -1.032e-7, 9.930e-8</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.025e-7</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.032e-7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.930e-8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.056, -1.983e-7, -1.025e-7, 9.582e-8</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.983e-7</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.025e-7</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.582e-8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.060, -1.946e-7, -1.019e-7, 9.264e-8</t>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.946e-7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.019e-7</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.264e-8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.064, -1.907e-7, -1.011e-7, 8.953e-8</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.907e-7</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.011e-7</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.953e-8</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.068, -1.874e-7, -1.005e-7, 8.690e-8</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.874e-7</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.005e-7</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.690e-8</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.072, -1.842e-7, -9.999e-8, 8.424e-8</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.842e-7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.999e-8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.424e-8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.076, -1.814e-7, -9.962e-8, 8.176e-8</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.814e-7</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.962e-8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.176e-8</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.080, -1.780e-7, -9.878e-8, 7.919e-8</t>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.780e-7</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.878e-8</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.919e-8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.084, -1.749e-7, -9.801e-8, 7.688e-8</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.749e-7</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.801e-8</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.688e-8</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.088, -1.722e-7, -9.772e-8, 7.447e-8</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.722e-7</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.772e-8</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.447e-8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.092, -1.698e-7, -9.738e-8, 7.247e-8</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.698e-7</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.738e-8</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.247e-8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.096, -1.670e-7, -9.691e-8, 7.006e-8</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.670e-7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.691e-8</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.006e-8</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.100, -1.648e-7, -9.670e-8, 6.810e-8</t>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.648e-7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.670e-8</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.810e-8</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.104, -1.625e-7, -9.617e-8, 6.633e-8</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.625e-7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.617e-8</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.633e-8</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.108, -1.602e-7, -9.588e-8, 6.431e-8</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.602e-7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.588e-8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.431e-8</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.112, -1.579e-7, -9.547e-8, 6.243e-8</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.579e-7</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.547e-8</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.243e-8</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.116, -1.558e-7, -9.530e-8, 6.048e-8</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.558e-7</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.530e-8</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.048e-8</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.120, -1.538e-7, -9.480e-8, 5.897e-8</t>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.538e-7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.480e-8</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.897e-8</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.124, -1.519e-7, -9.452e-8, 5.734e-8</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.519e-7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.452e-8</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.734e-8</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.128, -1.502e-7, -9.442e-8, 5.581e-8</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.502e-7</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.442e-8</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.581e-8</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.132, -1.477e-7, -9.385e-8, 5.389e-8</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.477e-7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.385e-8</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.389e-8</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.136, -1.460e-7, -9.360e-8, 5.243e-8</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.460e-7</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.360e-8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.243e-8</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.140, -1.442e-7, -9.332e-8, 5.093e-8</t>
+          <t>-0.140</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.442e-7</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.332e-8</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.093e-8</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.144, -1.428e-7, -9.328e-8, 4.956e-8</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.428e-7</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.328e-8</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.956e-8</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.148, -1.413e-7, -9.315e-8, 4.819e-8</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.413e-7</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.315e-8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.819e-8</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.152, -1.398e-7, -9.299e-8, 4.683e-8</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.398e-7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.299e-8</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.683e-8</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.156, -1.383e-7, -9.289e-8, 4.537e-8</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.383e-7</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.289e-8</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.537e-8</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.160, -1.368e-7, -9.290e-8, 4.391e-8</t>
+          <t>-0.160</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.368e-7</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.290e-8</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.391e-8</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.164, -1.358e-7, -9.280e-8, 4.298e-8</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.358e-7</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.280e-8</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.298e-8</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.168, -1.345e-7, -9.283e-8, 4.168e-8</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.345e-7</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.283e-8</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.168e-8</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.172, -1.335e-7, -9.303e-8, 4.044e-8</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.335e-7</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.303e-8</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.044e-8</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.176, -1.329e-7, -9.339e-8, 3.948e-8</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.329e-7</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.339e-8</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.948e-8</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.180, -1.319e-7, -9.350e-8, 3.842e-8</t>
+          <t>-0.180</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.319e-7</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.350e-8</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.842e-8</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.184, -1.313e-7, -9.382e-8, 3.744e-8</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.313e-7</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.382e-8</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.744e-8</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.188, -1.310e-7, -9.450e-8, 3.649e-8</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.310e-7</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.450e-8</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.649e-8</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.192, -1.304e-7, -9.519e-8, 3.526e-8</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.304e-7</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.519e-8</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.526e-8</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.196, -1.305e-7, -9.621e-8, 3.434e-8</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.305e-7</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.621e-8</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.434e-8</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.200, -1.308e-7, -9.728e-8, 3.356e-8</t>
+          <t>-0.200</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.308e-7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.728e-8</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.356e-8</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.204, -1.315e-7, -9.857e-8, 3.291e-8</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.315e-7</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.857e-8</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.291e-8</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.208, -1.323e-7, -1.001e-7, 3.217e-8</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.323e-7</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.001e-7</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.217e-8</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.212, -1.330e-7, -1.016e-7, 3.136e-8</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.330e-7</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.016e-7</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.136e-8</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.216, -1.345e-7, -1.032e-7, 3.130e-8</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.345e-7</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.032e-7</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.130e-8</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.220, -1.359e-7, -1.051e-7, 3.078e-8</t>
+          <t>-0.220</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.359e-7</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.051e-7</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.078e-8</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.224, -1.372e-7, -1.071e-7, 3.010e-8</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.372e-7</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.071e-7</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.010e-8</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.228, -1.388e-7, -1.086e-7, 3.024e-8</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.388e-7</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.086e-7</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.024e-8</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.232, -1.406e-7, -1.102e-7, 3.042e-8</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.406e-7</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.102e-7</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.042e-8</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.236, -1.416e-7, -1.121e-7, 2.950e-8</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.416e-7</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.121e-7</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.950e-8</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.240, -1.434e-7, -1.133e-7, 3.003e-8</t>
+          <t>-0.240</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.434e-7</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.133e-7</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.003e-8</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.244, -1.441e-7, -1.140e-7, 3.007e-8</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.441e-7</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.140e-7</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.007e-8</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.248, -1.453e-7, -1.151e-7, 3.015e-8</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.453e-7</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.151e-7</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.015e-8</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.252, -1.464e-7, -1.160e-7, 3.040e-8</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.464e-7</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.160e-7</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.040e-8</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.256, -1.461e-7, -1.150e-7, 3.111e-8</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.461e-7</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.150e-7</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.111e-8</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.260, -1.467e-7, -1.149e-7, 3.186e-8</t>
+          <t>-0.260</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.467e-7</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.149e-7</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.186e-8</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.264, -1.469e-7, -1.144e-7, 3.251e-8</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.469e-7</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.144e-7</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.251e-8</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.268, -1.464e-7, -1.132e-7, 3.316e-8</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.464e-7</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.132e-7</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.316e-8</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.272, -1.452e-7, -1.119e-7, 3.330e-8</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.452e-7</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.119e-7</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.330e-8</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.276, -1.443e-7, -1.100e-7, 3.431e-8</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.443e-7</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.100e-7</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.431e-8</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.280, -1.425e-7, -1.079e-7, 3.461e-8</t>
+          <t>-0.280</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.425e-7</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.079e-7</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.461e-8</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.284, -1.406e-7, -1.065e-7, 3.415e-8</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.406e-7</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.065e-7</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.415e-8</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.288, -1.387e-7, -1.048e-7, 3.385e-8</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.387e-7</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.048e-7</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.385e-8</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.292, -1.363e-7, -1.031e-7, 3.315e-8</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.363e-7</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.031e-7</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.315e-8</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.296, -1.336e-7, -1.016e-7, 3.196e-8</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.336e-7</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.016e-7</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.196e-8</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.300, -1.311e-7, -1.004e-7, 3.073e-8</t>
+          <t>-0.300</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.311e-7</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.004e-7</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.073e-8</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.304, -1.282e-7, -9.915e-8, 2.908e-8</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.282e-7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.915e-8</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.908e-8</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.308, -1.255e-7, -9.852e-8, 2.697e-8</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.255e-7</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.852e-8</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.697e-8</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.312, -1.225e-7, -9.776e-8, 2.474e-8</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.225e-7</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.776e-8</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.474e-8</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.316, -1.199e-7, -9.767e-8, 2.222e-8</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.199e-7</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.767e-8</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.222e-8</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.320, -1.170e-7, -9.745e-8, 1.954e-8</t>
+          <t>-0.320</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.170e-7</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.745e-8</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.954e-8</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.324, -1.151e-7, -9.816e-8, 1.696e-8</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.151e-7</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.816e-8</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.696e-8</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.328, -1.133e-7, -9.837e-8, 1.489e-8</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.133e-7</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.837e-8</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.489e-8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.332, -1.117e-7, -9.922e-8, 1.245e-8</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.117e-7</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.922e-8</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.245e-8</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.336, -1.102e-7, -9.974e-8, 1.047e-8</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.102e-7</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.974e-8</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.047e-8</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.340, -1.093e-7, -1.007e-7, 8.616e-9</t>
+          <t>-0.340</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.093e-7</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.007e-7</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.616e-9</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.344, -1.084e-7, -1.017e-7, 6.706e-9</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.084e-7</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.017e-7</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.706e-9</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.348, -1.081e-7, -1.030e-7, 5.031e-9</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.081e-7</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.030e-7</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.031e-9</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.352, -1.079e-7, -1.044e-7, 3.561e-9</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.079e-7</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.044e-7</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.561e-9</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.356, -1.075e-7, -1.057e-7, 1.785e-9</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.075e-7</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.057e-7</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.785e-9</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.360, -1.085e-7, -1.076e-7, 8.883e-10</t>
+          <t>-0.360</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.085e-7</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.076e-7</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.883e-10</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.364, -1.091e-7, -1.094e-7, -2.830e-10</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.091e-7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.094e-7</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.830e-10</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.368, -1.098e-7, -1.114e-7, -1.596e-9</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.098e-7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.114e-7</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.596e-9</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.372, -1.106e-7, -1.133e-7, -2.696e-9</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.106e-7</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.133e-7</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.696e-9</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.376, -1.117e-7, -1.153e-7, -3.538e-9</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.117e-7</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.153e-7</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.538e-9</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.380, -1.137e-7, -1.177e-7, -4.056e-9</t>
+          <t>-0.380</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.137e-7</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.177e-7</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.056e-9</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.384, -1.154e-7, -1.203e-7, -4.890e-9</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.154e-7</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.203e-7</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.890e-9</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.388, -1.163e-7, -1.221e-7, -5.825e-9</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.163e-7</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.221e-7</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.825e-9</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.392, -1.187e-7, -1.255e-7, -6.776e-9</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.187e-7</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.255e-7</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.776e-9</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.396, -1.203e-7, -1.294e-7, -9.064e-9</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.203e-7</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.294e-7</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.064e-9</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-0.400, -1.231e-7, -1.337e-7, -1.055e-8</t>
+          <t>-0.400</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.231e-7</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.337e-7</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.055e-8</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-0.404, -1.261e-7, -1.381e-7, -1.193e-8</t>
+          <t>-0.404</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.261e-7</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.381e-7</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.193e-8</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-0.408, -1.290e-7, -1.420e-7, -1.307e-8</t>
+          <t>-0.408</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.290e-7</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.420e-7</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.307e-8</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-0.412, -1.323e-7, -1.460e-7, -1.368e-8</t>
+          <t>-0.412</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.323e-7</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.460e-7</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.368e-8</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-0.416, -1.354e-7, -1.493e-7, -1.391e-8</t>
+          <t>-0.416</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.354e-7</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.493e-7</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.391e-8</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-0.420, -1.376e-7, -1.547e-7, -1.712e-8</t>
+          <t>-0.420</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.376e-7</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.547e-7</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.712e-8</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-0.424, -1.425e-7, -1.624e-7, -1.985e-8</t>
+          <t>-0.424</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.425e-7</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.624e-7</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.985e-8</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-0.428, -1.466e-7, -1.682e-7, -2.153e-8</t>
+          <t>-0.428</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.466e-7</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.682e-7</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.153e-8</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>-0.432, -1.515e-7, -1.745e-7, -2.294e-8</t>
+          <t>-0.432</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.515e-7</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.745e-7</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.294e-8</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>-0.436, -1.566e-7, -1.810e-7, -2.435e-8</t>
+          <t>-0.436</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.566e-7</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.810e-7</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.435e-8</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>-0.440, -1.613e-7, -1.878e-7, -2.645e-8</t>
+          <t>-0.440</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.613e-7</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.878e-7</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.645e-8</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>-0.444, -1.664e-7, -1.956e-7, -2.919e-8</t>
+          <t>-0.444</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.664e-7</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.956e-7</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.919e-8</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-0.448, -1.719e-7, -2.041e-7, -3.220e-8</t>
+          <t>-0.448</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.719e-7</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.041e-7</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.220e-8</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-0.452, -1.786e-7, -2.132e-7, -3.453e-8</t>
+          <t>-0.452</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.786e-7</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.132e-7</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.453e-8</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>-0.456, -1.853e-7, -2.227e-7, -3.746e-8</t>
+          <t>-0.456</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.853e-7</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.227e-7</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.746e-8</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>-0.460, -1.923e-7, -2.330e-7, -4.062e-8</t>
+          <t>-0.460</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.923e-7</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.330e-7</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.062e-8</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>-0.464, -2.000e-7, -2.440e-7, -4.406e-8</t>
+          <t>-0.464</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.000e-7</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.440e-7</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.406e-8</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>-0.468, -2.085e-7, -2.559e-7, -4.740e-8</t>
+          <t>-0.468</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.085e-7</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.559e-7</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.740e-8</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>-0.472, -2.169e-7, -2.680e-7, -5.112e-8</t>
+          <t>-0.472</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.169e-7</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.680e-7</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.112e-8</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>-0.476, -2.262e-7, -2.816e-7, -5.544e-8</t>
+          <t>-0.476</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.262e-7</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.816e-7</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.544e-8</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>-0.480, -2.359e-7, -2.960e-7, -6.013e-8</t>
+          <t>-0.480</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.359e-7</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.960e-7</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.013e-8</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>-0.484, -2.469e-7, -3.116e-7, -6.471e-8</t>
+          <t>-0.484</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.469e-7</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.116e-7</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.471e-8</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>-0.488, -2.580e-7, -3.276e-7, -6.966e-8</t>
+          <t>-0.488</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.580e-7</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.276e-7</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.966e-8</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>-0.492, -2.693e-7, -3.447e-7, -7.537e-8</t>
+          <t>-0.492</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.693e-7</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.447e-7</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.537e-8</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>-0.496, -2.822e-7, -3.631e-7, -8.088e-8</t>
+          <t>-0.496</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.822e-7</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.631e-7</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.088e-8</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>-0.500, -2.948e-7, -3.825e-7, -8.769e-8</t>
+          <t>-0.500</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.948e-7</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.825e-7</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.769e-8</t>
         </is>
       </c>
     </row>
